--- a/Exploratory Analysis/EDA-Top100_FreqLabels.xlsx
+++ b/Exploratory Analysis/EDA-Top100_FreqLabels.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SS19\AML\project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Courses\Git\Multi Label\Multi-Label-Classification-Eurlex\Exploratory Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F3707DA-6FC1-4871-8E1A-F796D17D69A9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE2106E8-7C8B-4007-9D65-2DB5A71A949D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5628" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Top_100_label_freq" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="103">
   <si>
     <t>Label</t>
   </si>
@@ -327,6 +327,9 @@
   </si>
   <si>
     <t>QUALITY LABEL</t>
+  </si>
+  <si>
+    <t>QUALITY LABELS</t>
   </si>
 </sst>
 </file>
@@ -967,6 +970,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-454F-4617-8462-889665FD344A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -982,6 +990,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-454F-4617-8462-889665FD344A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -997,6 +1010,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-454F-4617-8462-889665FD344A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1012,6 +1030,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-454F-4617-8462-889665FD344A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -1027,6 +1050,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-454F-4617-8462-889665FD344A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -1042,6 +1070,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-454F-4617-8462-889665FD344A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -1059,6 +1092,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-454F-4617-8462-889665FD344A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -1076,6 +1114,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-454F-4617-8462-889665FD344A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -1093,6 +1136,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-454F-4617-8462-889665FD344A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
@@ -1110,6 +1158,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-454F-4617-8462-889665FD344A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -3405,8 +3458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4216,7 +4269,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B101">
         <v>188</v>
